--- a/data_source.xlsx
+++ b/data_source.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python_scripts\Python_course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uidk7321\Python_course-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A38884DA-A41A-4290-958F-ECB10ADCC1B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{87C23866-E976-4FA5-B190-CC99AE74BC4C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Variables</t>
   </si>
@@ -66,9 +65,6 @@
     <t>char</t>
   </si>
   <si>
-    <t>BOOL</t>
-  </si>
-  <si>
     <t>Functions</t>
   </si>
   <si>
@@ -76,12 +72,24 @@
   </si>
   <si>
     <t>get_the_superficie_of_a_circle</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,9 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,103 +446,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B743ED4-6889-405A-89BA-328CF96E2FBD}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
